--- a/example_usage/suites/sampleipadtest.xlsx
+++ b/example_usage/suites/sampleipadtest.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mlin6/Documents/projects/2WorkSpace3Codeless/01GitHub/codeless/example_usage/suites/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C215BC95-AFC4-F845-AD81-28AB6DD8BA8C}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B6C65ABD-B57B-FF41-A7A5-9591B0CEC775}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="33600" windowHeight="21000" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="33600" windowHeight="21000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="c-demo_ipad" sheetId="2" r:id="rId1"/>
@@ -229,9 +229,6 @@
     <t>assertEquals::WebElement::getText::Alert Views</t>
   </si>
   <si>
-    <t>6cc0740d415bc04c943707b6da5ac978c60c4fc2</t>
-  </si>
-  <si>
     <t>Click on the APP</t>
   </si>
   <si>
@@ -239,6 +236,9 @@
   </si>
   <si>
     <t>UICatalog.catalog.alertviewTitle</t>
+  </si>
+  <si>
+    <t>auto</t>
   </si>
 </sst>
 </file>
@@ -627,7 +627,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C23"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
@@ -858,7 +858,7 @@
         <v>55</v>
       </c>
       <c r="B23" s="8" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
     </row>
   </sheetData>
@@ -874,7 +874,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:G11"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="98" zoomScaleNormal="98" workbookViewId="0">
+    <sheetView zoomScale="98" zoomScaleNormal="98" workbookViewId="0">
       <selection activeCell="F1" sqref="F1:G7"/>
     </sheetView>
   </sheetViews>
@@ -968,13 +968,13 @@
     </row>
     <row r="6" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A6" s="10" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B6" s="10" t="s">
         <v>23</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D6" s="10"/>
       <c r="E6" s="10" t="s">
@@ -990,7 +990,7 @@
         <v>56</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D7" s="10"/>
       <c r="E7" s="10" t="s">

--- a/example_usage/suites/sampleipadtest.xlsx
+++ b/example_usage/suites/sampleipadtest.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10309"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24729"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mlin6/Documents/projects/2WorkSpace3Codeless/01GitHub/codeless/example_usage/suites/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jung\Documents\codeless\example_usage\suites\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B6C65ABD-B57B-FF41-A7A5-9591B0CEC775}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5789B564-A2A7-4B9D-98A9-CF486F6A329E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="33600" windowHeight="21000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2700" yWindow="2340" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="c-demo_ipad" sheetId="2" r:id="rId1"/>
@@ -85,12 +85,6 @@
     <t>Path to the firefox webdriver to use for this machine. Installed under &lt;INSTALL_DIR&gt;/webdrivers/&lt;OS&gt; by default. For Windows: web_drivers/windows/geckodriver.exe For Mac: web_drivers/mac/geckodriver</t>
   </si>
   <si>
-    <t>webdriver.path.ie</t>
-  </si>
-  <si>
-    <t>web_drivers/windows/IEDriverServer.exe</t>
-  </si>
-  <si>
     <t>Path to the ie webdriver to use for this machine. Installed under &lt;INSTALL_DIR&gt;/webdrivers/&lt;OS&gt; by default. Windows only, no other valid settings.</t>
   </si>
   <si>
@@ -100,42 +94,15 @@
     <t>click</t>
   </si>
   <si>
-    <t>webdriver.platform.chrome</t>
-  </si>
-  <si>
     <t>Windows</t>
   </si>
   <si>
     <t>Plateform type for remote web driver intializing</t>
   </si>
   <si>
-    <t>webdriver.version.chrome</t>
-  </si>
-  <si>
-    <t>61.0</t>
-  </si>
-  <si>
     <t>Version for plateform type selected</t>
   </si>
   <si>
-    <t>webdriver.platform.ie</t>
-  </si>
-  <si>
-    <t>webdriver.version.ie</t>
-  </si>
-  <si>
-    <t>11</t>
-  </si>
-  <si>
-    <t>webdriver.platform.firefox</t>
-  </si>
-  <si>
-    <t>webdriver.version.firefox</t>
-  </si>
-  <si>
-    <t>60</t>
-  </si>
-  <si>
     <t>webdriver.platform.safari</t>
   </si>
   <si>
@@ -239,6 +206,39 @@
   </si>
   <si>
     <t>auto</t>
+  </si>
+  <si>
+    <t>webdriver.path.edge</t>
+  </si>
+  <si>
+    <t>web_drivers/windows/msedgedriver.exe</t>
+  </si>
+  <si>
+    <t>webdriver.platformName.chrome</t>
+  </si>
+  <si>
+    <t>webdriver.browserVersion.chrome</t>
+  </si>
+  <si>
+    <t>91.0</t>
+  </si>
+  <si>
+    <t>webdriver.platformName.edge</t>
+  </si>
+  <si>
+    <t>webdriver.browserVersion.edge</t>
+  </si>
+  <si>
+    <t>91</t>
+  </si>
+  <si>
+    <t>webdriver.platformName.firefox</t>
+  </si>
+  <si>
+    <t>webdriver.browserVersion.firefox</t>
+  </si>
+  <si>
+    <t>96</t>
   </si>
 </sst>
 </file>
@@ -627,19 +627,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B23" sqref="B23"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="19" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="18.75" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="36.6640625" style="8" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="36.7109375" style="8" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="41" style="8" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="62.5" style="6" customWidth="1"/>
-    <col min="4" max="16384" width="8.6640625" style="4"/>
+    <col min="3" max="3" width="62.42578125" style="6" customWidth="1"/>
+    <col min="4" max="16384" width="8.7109375" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="20" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
@@ -650,29 +650,29 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="60" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" ht="75" x14ac:dyDescent="0.3">
       <c r="A2" s="8" t="s">
         <v>8</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>44</v>
+        <v>33</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" ht="20" x14ac:dyDescent="0.25">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="37.5" x14ac:dyDescent="0.3">
       <c r="A3" s="8" t="s">
         <v>7</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C3" s="6" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="80" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" ht="93.75" x14ac:dyDescent="0.3">
       <c r="A4" s="8" t="s">
         <v>11</v>
       </c>
@@ -683,7 +683,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="80" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" ht="93.75" x14ac:dyDescent="0.3">
       <c r="A5" s="8" t="s">
         <v>16</v>
       </c>
@@ -694,171 +694,171 @@
         <v>18</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="60" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" ht="56.25" x14ac:dyDescent="0.3">
       <c r="A6" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="B6" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="C6" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="B6" s="8" t="s">
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A7" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="B7" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A8" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="B8" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="C8" s="6" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A9" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="B9" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="C9" s="6" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A10" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="B10" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="C10" s="6" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A11" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="B11" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="C11" s="6" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A12" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="B12" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="C12" s="6" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A13" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="B13" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="C13" s="6" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A14" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="B14" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="C14" s="6" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A15" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="B15" s="12" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A16" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="B16" s="12"/>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A17" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="B17" s="12"/>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A18" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="B18" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="C6" s="6" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" ht="20" x14ac:dyDescent="0.25">
-      <c r="A7" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="B7" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="C7" s="6" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" ht="20" x14ac:dyDescent="0.25">
-      <c r="A8" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="B8" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="C8" s="6" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" ht="20" x14ac:dyDescent="0.25">
-      <c r="A9" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="B9" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="C9" s="6" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" ht="20" x14ac:dyDescent="0.25">
-      <c r="A10" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="B10" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="C10" s="6" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" ht="20" x14ac:dyDescent="0.25">
-      <c r="A11" s="8" t="s">
-        <v>33</v>
-      </c>
-      <c r="B11" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="C11" s="6" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" ht="20" x14ac:dyDescent="0.25">
-      <c r="A12" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="B12" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="C12" s="6" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" ht="20" x14ac:dyDescent="0.25">
-      <c r="A13" s="8" t="s">
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A19" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="B19" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="B13" s="8" t="s">
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A20" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="B20" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="C13" s="6" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" ht="20" x14ac:dyDescent="0.25">
-      <c r="A14" s="8" t="s">
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A21" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="B21" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="B14" s="8" t="s">
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A22" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="B22" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="C14" s="6" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A15" s="8" t="s">
-        <v>40</v>
-      </c>
-      <c r="B15" s="12" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A16" s="8" t="s">
-        <v>42</v>
-      </c>
-      <c r="B16" s="12"/>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A17" s="8" t="s">
-        <v>43</v>
-      </c>
-      <c r="B17" s="12"/>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A18" s="8" t="s">
-        <v>41</v>
-      </c>
-      <c r="B18" s="8" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A19" s="8" t="s">
-        <v>51</v>
-      </c>
-      <c r="B19" s="8" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A20" s="8" t="s">
-        <v>52</v>
-      </c>
-      <c r="B20" s="8" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A21" s="8" t="s">
-        <v>53</v>
-      </c>
-      <c r="B21" s="8" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A22" s="8" t="s">
-        <v>54</v>
-      </c>
-      <c r="B22" s="8" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A23" s="8" t="s">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="B23" s="8" t="s">
-        <v>70</v>
+        <v>59</v>
       </c>
     </row>
   </sheetData>
@@ -878,19 +878,19 @@
       <selection activeCell="F1" sqref="F1:G7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="52.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="31.33203125" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.1640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="40.6640625" style="9" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="22.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="16384" width="8.83203125" style="1"/>
+    <col min="1" max="1" width="52.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="31.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="40.7109375" style="9" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="22.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="16384" width="8.85546875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>6</v>
       </c>
@@ -909,7 +909,7 @@
       <c r="F1" s="2"/>
       <c r="G1" s="2"/>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>10</v>
       </c>
@@ -919,99 +919,99 @@
       <c r="D2" s="3"/>
       <c r="E2" s="10"/>
     </row>
-    <row r="3" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="10" t="s">
-        <v>59</v>
+        <v>48</v>
       </c>
       <c r="B3" s="10" t="s">
-        <v>56</v>
+        <v>45</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="D3" s="10"/>
       <c r="E3" s="10" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.2">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="10" t="s">
-        <v>60</v>
+        <v>49</v>
       </c>
       <c r="B4" s="10" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>62</v>
+        <v>51</v>
       </c>
       <c r="D4" s="10"/>
       <c r="E4" s="10" t="s">
-        <v>63</v>
+        <v>52</v>
       </c>
       <c r="F4" s="10"/>
     </row>
-    <row r="5" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="10" t="s">
-        <v>64</v>
+        <v>53</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>61</v>
+        <v>50</v>
       </c>
       <c r="D5" s="10"/>
       <c r="E5" s="10" t="s">
-        <v>63</v>
+        <v>52</v>
       </c>
       <c r="F5" s="10"/>
     </row>
-    <row r="6" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="10" t="s">
-        <v>67</v>
+        <v>56</v>
       </c>
       <c r="B6" s="10" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>68</v>
+        <v>57</v>
       </c>
       <c r="D6" s="10"/>
       <c r="E6" s="10" t="s">
-        <v>63</v>
+        <v>52</v>
       </c>
       <c r="F6" s="10"/>
     </row>
-    <row r="7" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="10" t="s">
-        <v>65</v>
+        <v>54</v>
       </c>
       <c r="B7" s="10" t="s">
-        <v>56</v>
+        <v>45</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>69</v>
+        <v>58</v>
       </c>
       <c r="D7" s="10"/>
       <c r="E7" s="10" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.2">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="10"/>
       <c r="C8" s="2"/>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="10"/>
       <c r="B9" s="9"/>
       <c r="D9" s="11"/>
       <c r="E9" s="11"/>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="10"/>
       <c r="B10" s="10"/>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="3"/>
     </row>
   </sheetData>
